--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31D8782-FE66-8D4D-9F35-B6B7D504E9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420C17-32FB-5B4F-B82E-92C2E91D384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15920" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>sentence</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Let’s stand; it might be somebody who need to say yes to Jesus.</t>
   </si>
   <si>
-    <t>It had some breaded chicken sticks. Dey had some good French fries, too.3</t>
-  </si>
-  <si>
     <t>It’s a lot of people backstage who say they ready to come out and wreck shop.</t>
   </si>
   <si>
@@ -311,34 +308,6 @@
     <t>How long do you be out of school</t>
   </si>
   <si>
-    <t>We on our way to Oklahoma.We trying to see [can we work out March].</t>
-  </si>
-  <si>
-    <t>The coach wondered [would the team win].</t>
-  </si>
-  <si>
-    <t>It’s a whole lot of people [Ø don’ wanna go to hell]</t>
-  </si>
-  <si>
-    <t>You’re the one [Ø ain’t got no church].</t>
-  </si>
-  <si>
-    <t>You the one [Ø come telling me it’s hot]. I can’t believe you got your coat on.</t>
-  </si>
-  <si>
-    <t>It’s nobody [Ø walk that hard].</t>
-  </si>
-  <si>
-    <t>We got one girl [Ø be here every night]</t>
-  </si>
-  <si>
-    <t>I had went to the city last night and the only Affirm they had was super, so I didn’t
-get it.</t>
-  </si>
-  <si>
-    <t>We talked about this last year. That’s the test I had failed. (</t>
-  </si>
-  <si>
     <t>They ain’t paid me for two days that I had took.</t>
   </si>
   <si>
@@ -352,10 +321,6 @@
   </si>
   <si>
     <t>When he come down here, I be d en talked to him.</t>
-  </si>
-  <si>
-    <t>He had called me Wednesday afternoon and asked, “Do you want to go the
-movies” . . . so I gets in the car.</t>
   </si>
   <si>
     <t>Nobody don’t be there when it throws water everywhere?</t>
@@ -389,9 +354,6 @@
     <t>Mrs. Marple ain’t dǝn sung in that classroom.</t>
   </si>
   <si>
-    <t>I wonder [whether the game gon start late].</t>
-  </si>
-  <si>
     <t>I ain’t gon buy nothing for no classes now.</t>
   </si>
   <si>
@@ -422,15 +384,6 @@
     <t>The way the world’s going, I don’t think half of them believe in the God.</t>
   </si>
   <si>
-    <t>So, hey, this is my home, home where- this Ø where I was born.</t>
-  </si>
-  <si>
-    <t>The inside box with the coffin what sits [down in the grave].</t>
-  </si>
-  <si>
-    <t>So, sometime you see [it looking bright].</t>
-  </si>
-  <si>
     <t>If they get a DVD player, they be happy</t>
   </si>
   <si>
@@ -440,33 +393,18 @@
     <t>The man hat was old</t>
   </si>
   <si>
-    <t>ll be done bought my own CB waitin’ on him to buy me one.</t>
-  </si>
-  <si>
     <t>We’d be done gone and fell out.</t>
   </si>
   <si>
     <t>He got no patience for nothing</t>
   </si>
   <si>
-    <t>That picture of [CP a man with no fingers]] ain’t gonna win no photography competition</t>
-  </si>
-  <si>
-    <t>Sheila going to that place [CP that pay better]</t>
-  </si>
-  <si>
-    <t>He the man [CP who go to college in New York]</t>
-  </si>
-  <si>
     <t>He might could do the work</t>
   </si>
   <si>
     <t>He might could go</t>
   </si>
   <si>
-    <t>[CP Could [IP we might e do it now?]]</t>
-  </si>
-  <si>
     <t>Bruce drunk the chocolate milk last night.</t>
   </si>
   <si>
@@ -476,7 +414,64 @@
     <t>The teacher think the students be playing in class, and be playing in class they do</t>
   </si>
   <si>
-    <t>That’s the man 0/ come here the other day.</t>
+    <t>It’s nobody walk that hard</t>
+  </si>
+  <si>
+    <t>We talked about this last year. That’s the test I had failed.</t>
+  </si>
+  <si>
+    <t>I had went to the city last night and the only Affirm they had was super, so I didn’t get it.</t>
+  </si>
+  <si>
+    <t>We got one girl be here every night</t>
+  </si>
+  <si>
+    <t>You’re the one ain’t got no church.</t>
+  </si>
+  <si>
+    <t>It’s a whole lot of people don’ wanna go to hell</t>
+  </si>
+  <si>
+    <t>The coach wondered would the team win</t>
+  </si>
+  <si>
+    <t>We on our way to Oklahoma.We trying to see can we work out March</t>
+  </si>
+  <si>
+    <t>He had called me Wednesday afternoon and asked, “Do you want to go the movies” . . . so I gets in the car.</t>
+  </si>
+  <si>
+    <t>I wonder whether the game gon start late</t>
+  </si>
+  <si>
+    <t>So, hey, this is my home, home where- this where I was born.</t>
+  </si>
+  <si>
+    <t>The inside box with the coffin what sits down in the grave</t>
+  </si>
+  <si>
+    <t>So, sometime you see it looking bright</t>
+  </si>
+  <si>
+    <t>ll be done bought my own waitin’ on him to buy me one.</t>
+  </si>
+  <si>
+    <t>Sheila going to that place that pay better</t>
+  </si>
+  <si>
+    <t>He the man who go to college in New York</t>
+  </si>
+  <si>
+    <t>That picture of a man with no fingers ain’t gonna win no photography competition</t>
+  </si>
+  <si>
+    <t>That’s the man come here the other day.</t>
+  </si>
+  <si>
+    <t>Could we might do it now?</t>
+  </si>
+  <si>
+    <t>It had some breaded chicken sticks. Dey had some good French fries, too</t>
   </si>
 </sst>
 </file>
@@ -860,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EB155-4499-744F-AE3F-0C80D69D168D}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,177 +1200,177 @@
     </row>
     <row r="51" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="34" x14ac:dyDescent="0.2">
@@ -1383,169 +1378,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59420C17-32FB-5B4F-B82E-92C2E91D384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9ABC4D-82B1-8349-A563-4E24D3DDC7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15920" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
+    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15920" activeTab="2" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp1" sheetId="2" r:id="rId2"/>
+    <sheet name="Exp2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="144">
   <si>
     <t>sentence</t>
   </si>
@@ -857,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EB155-4499-744F-AE3F-0C80D69D168D}">
   <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView topLeftCell="A81" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,4 +1548,1394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37960DA6-25BC-6C40-8302-3D0E79C073BF}">
+  <dimension ref="A1:AB119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="43" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCE63DB-292A-7A44-8DDD-28063A005440}">
+  <dimension ref="A1:AB119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G85" sqref="G83:G85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="43" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B38DB-1154-7B4B-97CE-45D28E1DEFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF6F1A-3009-6749-96F9-8E14C25236B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="17400" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
+    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15880" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="13" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="164">
   <si>
     <t>sentence</t>
   </si>
@@ -515,12 +515,6 @@
     <t>It had some breaded chicken sticks. They had some good French fries, too</t>
   </si>
   <si>
-    <t>They ain’t pay me for two days that I had took.</t>
-  </si>
-  <si>
-    <t>Candy go over there every time she come, if he be done cooked.</t>
-  </si>
-  <si>
     <t>When he come down here, I be done talked to him.</t>
   </si>
   <si>
@@ -543,6 +537,33 @@
   </si>
   <si>
     <t>The way the world going and the way people is acting, I don’t know, it don’t seem like half of them believe in any God.</t>
+  </si>
+  <si>
+    <t>They want to do they own thing, and you steady talking to them kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl, you know what I notice about this? When it be making ice, a lot of water fall in it. </t>
+  </si>
+  <si>
+    <t>Bruce, he eating, ain’t he?</t>
+  </si>
+  <si>
+    <t>The devil, he haves us in a state of sin.</t>
+  </si>
+  <si>
+    <t>Sheila, she going to that place that pay better</t>
+  </si>
+  <si>
+    <t>Candy she go over there every time she come, if he be done cooked.</t>
+  </si>
+  <si>
+    <t>They ain’t pay me for two day that I had took.</t>
+  </si>
+  <si>
+    <t>What they was doing? Catching worm or something?</t>
+  </si>
+  <si>
+    <t>I ain’t never seen nobody preach under them announcement.</t>
   </si>
 </sst>
 </file>
@@ -959,13 +980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C55F1E-61B8-CC4E-A62C-30E23DBF9163}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,13 +1192,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.TEXTJOIN(", ", TRUE, IF(C3:AB3=1, C$1:AB$1, ""))</f>
-        <v>zero-copula, aint</v>
+        <v>zero-copula, aint, appositive-pleonastic-pronoun</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1240,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="5">
         <v>0</v>
@@ -4305,11 +4326,11 @@
     </row>
     <row r="39" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="B39" s="2" t="str" cm="1">
         <f t="array" ref="B39">_xlfn.TEXTJOIN(", ", TRUE, IF(C39:AB39=1, C$1:AB$1, ""))</f>
-        <v>zero-poss, zero-copula</v>
+        <v>zero-poss, zero-copula, demonstrative-them</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -4369,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="5">
         <v>0</v>
@@ -4740,11 +4761,11 @@
     </row>
     <row r="44" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B44" s="2" t="str" cm="1">
         <f t="array" ref="B44">_xlfn.TEXTJOIN(", ", TRUE, IF(C44:AB44=1, C$1:AB$1, ""))</f>
-        <v>multiple-neg, aint</v>
+        <v>multiple-neg, aint, zero-pl-s, demonstrative-them</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -4789,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4">
         <v>0</v>
@@ -4804,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="4">
         <v>0</v>
@@ -5784,11 +5805,11 @@
     </row>
     <row r="56" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="str" cm="1">
         <f t="array" ref="B56">_xlfn.TEXTJOIN(", ", TRUE, IF(C56:AB56=1, C$1:AB$1, ""))</f>
-        <v>is-was-gen, wh-qu2</v>
+        <v>is-was-gen, zero-pl-s, wh-qu2</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -5833,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="4">
         <v>0</v>
@@ -7176,11 +7197,11 @@
     </row>
     <row r="72" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="str" cm="1">
         <f t="array" ref="B72">_xlfn.TEXTJOIN(", ", TRUE, IF(C72:AB72=1, C$1:AB$1, ""))</f>
-        <v>aint, verb-stem, preterite-had</v>
+        <v>aint, zero-pl-s, verb-stem, preterite-had</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -7225,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="4">
         <v>0</v>
@@ -7350,11 +7371,11 @@
     </row>
     <row r="74" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2" t="str" cm="1">
         <f t="array" ref="B74">_xlfn.TEXTJOIN(", ", TRUE, IF(C74:AB74=1, C$1:AB$1, ""))</f>
-        <v>be-construction, resultant-done, zero-3sg-pres-s</v>
+        <v>be-construction, resultant-done, zero-3sg-pres-s, appositive-pleonastic-pronoun</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -7417,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="4">
         <v>0</v>
@@ -7524,7 +7545,7 @@
     </row>
     <row r="76" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="str" cm="1">
         <f t="array" ref="B76">_xlfn.TEXTJOIN(", ", TRUE, IF(C76:AB76=1, C$1:AB$1, ""))</f>
@@ -7698,7 +7719,7 @@
     </row>
     <row r="78" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="str" cm="1">
         <f t="array" ref="B78">_xlfn.TEXTJOIN(", ", TRUE, IF(C78:AB78=1, C$1:AB$1, ""))</f>
@@ -7785,11 +7806,11 @@
     </row>
     <row r="79" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B79" s="2" t="str" cm="1">
         <f t="array" ref="B79">_xlfn.TEXTJOIN(", ", TRUE, IF(C79:AB79=1, C$1:AB$1, ""))</f>
-        <v/>
+        <v>appositive-pleonastic-pronoun</v>
       </c>
       <c r="C79" s="5">
         <v>0</v>
@@ -7852,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" s="5">
         <v>0</v>
@@ -7957,9 +7978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="85" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B81" s="2" t="str" cm="1">
         <f t="array" ref="B81">_xlfn.TEXTJOIN(", ", TRUE, IF(C81:AB81=1, C$1:AB$1, ""))</f>
@@ -8131,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>99</v>
       </c>
@@ -8306,1062 +8327,1062 @@
       </c>
     </row>
     <row r="85" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>65</v>
+      <c r="A85" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="str" cm="1">
         <f t="array" ref="B85">_xlfn.TEXTJOIN(", ", TRUE, IF(C85:AB85=1, C$1:AB$1, ""))</f>
         <v>zero-poss, zero-copula</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5">
-        <v>0</v>
-      </c>
-      <c r="J85" s="5">
-        <v>0</v>
-      </c>
-      <c r="K85" s="5">
-        <v>0</v>
-      </c>
-      <c r="L85" s="5">
-        <v>0</v>
-      </c>
-      <c r="M85" s="5">
-        <v>0</v>
-      </c>
-      <c r="N85" s="5">
-        <v>0</v>
-      </c>
-      <c r="O85" s="5">
-        <v>0</v>
-      </c>
-      <c r="P85" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="5">
-        <v>0</v>
-      </c>
-      <c r="R85" s="5">
-        <v>0</v>
-      </c>
-      <c r="S85" s="5">
-        <v>0</v>
-      </c>
-      <c r="T85" s="5">
-        <v>0</v>
-      </c>
-      <c r="U85" s="5">
-        <v>0</v>
-      </c>
-      <c r="V85" s="5">
-        <v>0</v>
-      </c>
-      <c r="W85" s="5">
-        <v>0</v>
-      </c>
-      <c r="X85" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>151</v>
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4">
+        <v>0</v>
+      </c>
+      <c r="S85" s="4">
+        <v>0</v>
+      </c>
+      <c r="T85" s="4">
+        <v>0</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0</v>
+      </c>
+      <c r="V85" s="4">
+        <v>0</v>
+      </c>
+      <c r="W85" s="4">
+        <v>0</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="str" cm="1">
         <f t="array" ref="B86">_xlfn.TEXTJOIN(", ", TRUE, IF(C86:AB86=1, C$1:AB$1, ""))</f>
-        <v>zero-poss, zero-copula</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0</v>
-      </c>
-      <c r="H86" s="4">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0</v>
-      </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4">
-        <v>0</v>
-      </c>
-      <c r="L86" s="4">
-        <v>0</v>
-      </c>
-      <c r="M86" s="4">
-        <v>0</v>
-      </c>
-      <c r="N86" s="4">
-        <v>0</v>
-      </c>
-      <c r="O86" s="4">
-        <v>0</v>
-      </c>
-      <c r="P86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="4">
-        <v>0</v>
-      </c>
-      <c r="R86" s="4">
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <v>0</v>
-      </c>
-      <c r="T86" s="4">
-        <v>0</v>
-      </c>
-      <c r="U86" s="4">
-        <v>0</v>
-      </c>
-      <c r="V86" s="4">
-        <v>0</v>
-      </c>
-      <c r="W86" s="4">
-        <v>0</v>
-      </c>
-      <c r="X86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="4">
+        <v>multiple-neg, neg-inversion, zero-3sg-pres-s</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <v>1</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0</v>
+      </c>
+      <c r="T86" s="5">
+        <v>0</v>
+      </c>
+      <c r="U86" s="5">
+        <v>0</v>
+      </c>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>102</v>
+      <c r="A87" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B87" s="2" t="str" cm="1">
         <f t="array" ref="B87">_xlfn.TEXTJOIN(", ", TRUE, IF(C87:AB87=1, C$1:AB$1, ""))</f>
-        <v>multiple-neg, neg-inversion, zero-3sg-pres-s</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0</v>
-      </c>
-      <c r="D87" s="5">
-        <v>0</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5">
-        <v>0</v>
-      </c>
-      <c r="J87" s="5">
-        <v>0</v>
-      </c>
-      <c r="K87" s="5">
-        <v>1</v>
-      </c>
-      <c r="L87" s="5">
-        <v>1</v>
-      </c>
-      <c r="M87" s="5">
-        <v>0</v>
-      </c>
-      <c r="N87" s="5">
-        <v>0</v>
-      </c>
-      <c r="O87" s="5">
-        <v>1</v>
-      </c>
-      <c r="P87" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="5">
-        <v>0</v>
-      </c>
-      <c r="R87" s="5">
-        <v>0</v>
-      </c>
-      <c r="S87" s="5">
-        <v>0</v>
-      </c>
-      <c r="T87" s="5">
-        <v>0</v>
-      </c>
-      <c r="U87" s="5">
-        <v>0</v>
-      </c>
-      <c r="V87" s="5">
-        <v>0</v>
-      </c>
-      <c r="W87" s="5">
-        <v>0</v>
-      </c>
-      <c r="X87" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="5">
+        <v>resultant-done, aint</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>1</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4">
+        <v>0</v>
+      </c>
+      <c r="S87" s="4">
+        <v>0</v>
+      </c>
+      <c r="T87" s="4">
+        <v>0</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0</v>
+      </c>
+      <c r="W87" s="4">
+        <v>0</v>
+      </c>
+      <c r="X87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>152</v>
+      <c r="A88" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="str" cm="1">
         <f t="array" ref="B88">_xlfn.TEXTJOIN(", ", TRUE, IF(C88:AB88=1, C$1:AB$1, ""))</f>
-        <v>resultant-done, aint</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0</v>
-      </c>
-      <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>0</v>
-      </c>
-      <c r="G88" s="4">
-        <v>1</v>
-      </c>
-      <c r="H88" s="4">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0</v>
-      </c>
-      <c r="J88" s="4">
-        <v>0</v>
-      </c>
-      <c r="K88" s="4">
-        <v>0</v>
-      </c>
-      <c r="L88" s="4">
-        <v>0</v>
-      </c>
-      <c r="M88" s="4">
-        <v>0</v>
-      </c>
-      <c r="N88" s="4">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="4">
-        <v>0</v>
-      </c>
-      <c r="R88" s="4">
-        <v>0</v>
-      </c>
-      <c r="S88" s="4">
-        <v>0</v>
-      </c>
-      <c r="T88" s="4">
-        <v>0</v>
-      </c>
-      <c r="U88" s="4">
-        <v>0</v>
-      </c>
-      <c r="V88" s="4">
-        <v>0</v>
-      </c>
-      <c r="W88" s="4">
-        <v>0</v>
-      </c>
-      <c r="X88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="4">
+        <v>zero-copula</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
+        <v>0</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0</v>
+      </c>
+      <c r="T88" s="5">
+        <v>0</v>
+      </c>
+      <c r="U88" s="5">
+        <v>0</v>
+      </c>
+      <c r="V88" s="5">
+        <v>0</v>
+      </c>
+      <c r="W88" s="5">
+        <v>0</v>
+      </c>
+      <c r="X88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>133</v>
+      <c r="A89" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="str" cm="1">
         <f t="array" ref="B89">_xlfn.TEXTJOIN(", ", TRUE, IF(C89:AB89=1, C$1:AB$1, ""))</f>
-        <v>zero-copula</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0</v>
-      </c>
-      <c r="D89" s="5">
-        <v>1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5">
-        <v>0</v>
-      </c>
-      <c r="K89" s="5">
-        <v>0</v>
-      </c>
-      <c r="L89" s="5">
-        <v>0</v>
-      </c>
-      <c r="M89" s="5">
-        <v>0</v>
-      </c>
-      <c r="N89" s="5">
-        <v>0</v>
-      </c>
-      <c r="O89" s="5">
-        <v>0</v>
-      </c>
-      <c r="P89" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="5">
-        <v>0</v>
-      </c>
-      <c r="R89" s="5">
-        <v>0</v>
-      </c>
-      <c r="S89" s="5">
-        <v>0</v>
-      </c>
-      <c r="T89" s="5">
-        <v>0</v>
-      </c>
-      <c r="U89" s="5">
-        <v>0</v>
-      </c>
-      <c r="V89" s="5">
-        <v>0</v>
-      </c>
-      <c r="W89" s="5">
-        <v>0</v>
-      </c>
-      <c r="X89" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>multiple-neg, aint</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4">
+        <v>0</v>
+      </c>
+      <c r="S89" s="4">
+        <v>0</v>
+      </c>
+      <c r="T89" s="4">
+        <v>0</v>
+      </c>
+      <c r="U89" s="4">
+        <v>0</v>
+      </c>
+      <c r="V89" s="4">
+        <v>0</v>
+      </c>
+      <c r="W89" s="4">
+        <v>0</v>
+      </c>
+      <c r="X89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="str" cm="1">
         <f t="array" ref="B90">_xlfn.TEXTJOIN(", ", TRUE, IF(C90:AB90=1, C$1:AB$1, ""))</f>
-        <v>multiple-neg, aint</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0</v>
-      </c>
-      <c r="D90" s="4">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4">
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <v>0</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
-      </c>
-      <c r="L90" s="4">
-        <v>0</v>
-      </c>
-      <c r="M90" s="4">
-        <v>0</v>
-      </c>
-      <c r="N90" s="4">
-        <v>1</v>
-      </c>
-      <c r="O90" s="4">
-        <v>0</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>0</v>
-      </c>
-      <c r="S90" s="4">
-        <v>0</v>
-      </c>
-      <c r="T90" s="4">
-        <v>0</v>
-      </c>
-      <c r="U90" s="4">
-        <v>0</v>
-      </c>
-      <c r="V90" s="4">
-        <v>0</v>
-      </c>
-      <c r="W90" s="4">
-        <v>0</v>
-      </c>
-      <c r="X90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="4">
+        <v>resultant-done, past-tense-swap</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0</v>
+      </c>
+      <c r="T90" s="5">
+        <v>0</v>
+      </c>
+      <c r="U90" s="5">
+        <v>0</v>
+      </c>
+      <c r="V90" s="5">
+        <v>0</v>
+      </c>
+      <c r="W90" s="5">
+        <v>0</v>
+      </c>
+      <c r="X90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>105</v>
+      <c r="A91" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="str" cm="1">
         <f t="array" ref="B91">_xlfn.TEXTJOIN(", ", TRUE, IF(C91:AB91=1, C$1:AB$1, ""))</f>
-        <v>resultant-done, past-tense-swap</v>
-      </c>
-      <c r="C91" s="5">
-        <v>0</v>
-      </c>
-      <c r="D91" s="5">
-        <v>0</v>
-      </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5">
-        <v>1</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
-        <v>0</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0</v>
-      </c>
-      <c r="K91" s="5">
-        <v>0</v>
-      </c>
-      <c r="L91" s="5">
-        <v>0</v>
-      </c>
-      <c r="M91" s="5">
-        <v>0</v>
-      </c>
-      <c r="N91" s="5">
-        <v>0</v>
-      </c>
-      <c r="O91" s="5">
-        <v>0</v>
-      </c>
-      <c r="P91" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="5">
-        <v>0</v>
-      </c>
-      <c r="R91" s="5">
-        <v>0</v>
-      </c>
-      <c r="S91" s="5">
-        <v>0</v>
-      </c>
-      <c r="T91" s="5">
-        <v>0</v>
-      </c>
-      <c r="U91" s="5">
-        <v>0</v>
-      </c>
-      <c r="V91" s="5">
-        <v>0</v>
-      </c>
-      <c r="W91" s="5">
-        <v>0</v>
-      </c>
-      <c r="X91" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA91" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>106</v>
+        <v>verb-stem</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>0</v>
+      </c>
+      <c r="S91" s="4">
+        <v>0</v>
+      </c>
+      <c r="T91" s="4">
+        <v>0</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0</v>
+      </c>
+      <c r="V91" s="4">
+        <v>0</v>
+      </c>
+      <c r="W91" s="4">
+        <v>0</v>
+      </c>
+      <c r="X91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="str" cm="1">
         <f t="array" ref="B92">_xlfn.TEXTJOIN(", ", TRUE, IF(C92:AB92=1, C$1:AB$1, ""))</f>
-        <v>verb-stem</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0</v>
-      </c>
-      <c r="D92" s="4">
-        <v>0</v>
-      </c>
-      <c r="E92" s="4">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0</v>
-      </c>
-      <c r="J92" s="4">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4">
-        <v>0</v>
-      </c>
-      <c r="L92" s="4">
-        <v>0</v>
-      </c>
-      <c r="M92" s="4">
-        <v>0</v>
-      </c>
-      <c r="N92" s="4">
-        <v>0</v>
-      </c>
-      <c r="O92" s="4">
-        <v>0</v>
-      </c>
-      <c r="P92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="4">
-        <v>0</v>
-      </c>
-      <c r="R92" s="4">
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <v>0</v>
-      </c>
-      <c r="T92" s="4">
-        <v>0</v>
-      </c>
-      <c r="U92" s="4">
-        <v>0</v>
-      </c>
-      <c r="V92" s="4">
-        <v>0</v>
-      </c>
-      <c r="W92" s="4">
-        <v>0</v>
-      </c>
-      <c r="X92" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>107</v>
+        <v>is-was-gen</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0</v>
+      </c>
+      <c r="P92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0</v>
+      </c>
+      <c r="T92" s="5">
+        <v>0</v>
+      </c>
+      <c r="U92" s="5">
+        <v>0</v>
+      </c>
+      <c r="V92" s="5">
+        <v>0</v>
+      </c>
+      <c r="W92" s="5">
+        <v>0</v>
+      </c>
+      <c r="X92" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="str" cm="1">
         <f t="array" ref="B93">_xlfn.TEXTJOIN(", ", TRUE, IF(C93:AB93=1, C$1:AB$1, ""))</f>
-        <v>is-was-gen</v>
-      </c>
-      <c r="C93" s="5">
-        <v>0</v>
-      </c>
-      <c r="D93" s="5">
-        <v>0</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
-        <v>0</v>
-      </c>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93" s="5">
-        <v>0</v>
-      </c>
-      <c r="L93" s="5">
-        <v>0</v>
-      </c>
-      <c r="M93" s="5">
-        <v>0</v>
-      </c>
-      <c r="N93" s="5">
-        <v>0</v>
-      </c>
-      <c r="O93" s="5">
-        <v>0</v>
-      </c>
-      <c r="P93" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="5">
-        <v>0</v>
-      </c>
-      <c r="R93" s="5">
-        <v>0</v>
-      </c>
-      <c r="S93" s="5">
-        <v>0</v>
-      </c>
-      <c r="T93" s="5">
-        <v>0</v>
-      </c>
-      <c r="U93" s="5">
-        <v>0</v>
-      </c>
-      <c r="V93" s="5">
-        <v>0</v>
-      </c>
-      <c r="W93" s="5">
-        <v>0</v>
-      </c>
-      <c r="X93" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>resultant-done, past-tense-swap</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
+        <v>0</v>
+      </c>
+      <c r="S93" s="4">
+        <v>0</v>
+      </c>
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
+        <v>0</v>
+      </c>
+      <c r="W93" s="4">
+        <v>0</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="str" cm="1">
         <f t="array" ref="B94">_xlfn.TEXTJOIN(", ", TRUE, IF(C94:AB94=1, C$1:AB$1, ""))</f>
-        <v>resultant-done, past-tense-swap</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4">
-        <v>0</v>
-      </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>1</v>
-      </c>
-      <c r="H94" s="4">
-        <v>0</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4">
-        <v>0</v>
-      </c>
-      <c r="M94" s="4">
-        <v>0</v>
-      </c>
-      <c r="N94" s="4">
-        <v>0</v>
-      </c>
-      <c r="O94" s="4">
-        <v>0</v>
-      </c>
-      <c r="P94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="4">
-        <v>0</v>
-      </c>
-      <c r="R94" s="4">
-        <v>0</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0</v>
-      </c>
-      <c r="T94" s="4">
-        <v>0</v>
-      </c>
-      <c r="U94" s="4">
-        <v>0</v>
-      </c>
-      <c r="V94" s="4">
-        <v>0</v>
-      </c>
-      <c r="W94" s="4">
-        <v>0</v>
-      </c>
-      <c r="X94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA94" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>109</v>
+        <v>be-construction, resultant-done, past-tense-swap</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0</v>
+      </c>
+      <c r="T94" s="5">
+        <v>0</v>
+      </c>
+      <c r="U94" s="5">
+        <v>0</v>
+      </c>
+      <c r="V94" s="5">
+        <v>0</v>
+      </c>
+      <c r="W94" s="5">
+        <v>0</v>
+      </c>
+      <c r="X94" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="str" cm="1">
         <f t="array" ref="B95">_xlfn.TEXTJOIN(", ", TRUE, IF(C95:AB95=1, C$1:AB$1, ""))</f>
-        <v>be-construction, resultant-done, past-tense-swap</v>
-      </c>
-      <c r="C95" s="5">
-        <v>0</v>
-      </c>
-      <c r="D95" s="5">
-        <v>0</v>
-      </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
-        <v>1</v>
-      </c>
-      <c r="G95" s="5">
-        <v>1</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5">
-        <v>0</v>
-      </c>
-      <c r="K95" s="5">
-        <v>0</v>
-      </c>
-      <c r="L95" s="5">
-        <v>0</v>
-      </c>
-      <c r="M95" s="5">
-        <v>0</v>
-      </c>
-      <c r="N95" s="5">
-        <v>0</v>
-      </c>
-      <c r="O95" s="5">
-        <v>0</v>
-      </c>
-      <c r="P95" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="5">
-        <v>0</v>
-      </c>
-      <c r="R95" s="5">
-        <v>0</v>
-      </c>
-      <c r="S95" s="5">
-        <v>0</v>
-      </c>
-      <c r="T95" s="5">
-        <v>0</v>
-      </c>
-      <c r="U95" s="5">
-        <v>0</v>
-      </c>
-      <c r="V95" s="5">
-        <v>0</v>
-      </c>
-      <c r="W95" s="5">
-        <v>0</v>
-      </c>
-      <c r="X95" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA95" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>resultant-done, past-tense-swap</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4">
+        <v>0</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0</v>
+      </c>
+      <c r="T95" s="4">
+        <v>0</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0</v>
+      </c>
+      <c r="V95" s="4">
+        <v>0</v>
+      </c>
+      <c r="W95" s="4">
+        <v>0</v>
+      </c>
+      <c r="X95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="str" cm="1">
         <f t="array" ref="B96">_xlfn.TEXTJOIN(", ", TRUE, IF(C96:AB96=1, C$1:AB$1, ""))</f>
-        <v>resultant-done, past-tense-swap</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-      <c r="E96" s="4">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4">
-        <v>0</v>
-      </c>
-      <c r="I96" s="4">
-        <v>0</v>
-      </c>
-      <c r="J96" s="4">
-        <v>0</v>
-      </c>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
-      <c r="L96" s="4">
-        <v>0</v>
-      </c>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4">
-        <v>0</v>
-      </c>
-      <c r="O96" s="4">
-        <v>0</v>
-      </c>
-      <c r="P96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="4">
-        <v>0</v>
-      </c>
-      <c r="R96" s="4">
-        <v>0</v>
-      </c>
-      <c r="S96" s="4">
-        <v>0</v>
-      </c>
-      <c r="T96" s="4">
-        <v>0</v>
-      </c>
-      <c r="U96" s="4">
-        <v>0</v>
-      </c>
-      <c r="V96" s="4">
-        <v>0</v>
-      </c>
-      <c r="W96" s="4">
-        <v>0</v>
-      </c>
-      <c r="X96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA96" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+        <v>resultant-done, bin</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>0</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0</v>
+      </c>
+      <c r="S96" s="5">
+        <v>0</v>
+      </c>
+      <c r="T96" s="5">
+        <v>0</v>
+      </c>
+      <c r="U96" s="5">
+        <v>0</v>
+      </c>
+      <c r="V96" s="5">
+        <v>0</v>
+      </c>
+      <c r="W96" s="5">
+        <v>0</v>
+      </c>
+      <c r="X96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="str" cm="1">
         <f t="array" ref="B97">_xlfn.TEXTJOIN(", ", TRUE, IF(C97:AB97=1, C$1:AB$1, ""))</f>
-        <v>resultant-done, bin</v>
+        <v>zero-copula, zero-3sg-pres-s, is-was-gen</v>
       </c>
       <c r="C97" s="5">
         <v>0</v>
       </c>
       <c r="D97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -9370,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="5">
         <v>0</v>
@@ -9394,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" s="5">
         <v>0</v>
@@ -9421,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97" s="5">
         <v>0</v>
@@ -9436,1743 +9457,1656 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="85" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
-        <v>156</v>
+    <row r="98" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="str" cm="1">
         <f t="array" ref="B98">_xlfn.TEXTJOIN(", ", TRUE, IF(C98:AB98=1, C$1:AB$1, ""))</f>
-        <v>zero-copula, zero-3sg-pres-s, is-was-gen</v>
-      </c>
-      <c r="C98" s="5">
-        <v>0</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5">
-        <v>0</v>
-      </c>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98" s="5">
-        <v>0</v>
-      </c>
-      <c r="L98" s="5">
-        <v>0</v>
-      </c>
-      <c r="M98" s="5">
-        <v>0</v>
-      </c>
-      <c r="N98" s="5">
-        <v>0</v>
-      </c>
-      <c r="O98" s="5">
-        <v>1</v>
-      </c>
-      <c r="P98" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="5">
-        <v>0</v>
-      </c>
-      <c r="R98" s="5">
-        <v>0</v>
-      </c>
-      <c r="S98" s="5">
-        <v>0</v>
-      </c>
-      <c r="T98" s="5">
-        <v>0</v>
-      </c>
-      <c r="U98" s="5">
-        <v>0</v>
-      </c>
-      <c r="V98" s="5">
-        <v>0</v>
-      </c>
-      <c r="W98" s="5">
-        <v>0</v>
-      </c>
-      <c r="X98" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="5">
+        <v>zero-copula</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+      <c r="L98" s="4">
+        <v>0</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>0</v>
+      </c>
+      <c r="R98" s="4">
+        <v>0</v>
+      </c>
+      <c r="S98" s="4">
+        <v>0</v>
+      </c>
+      <c r="T98" s="4">
+        <v>0</v>
+      </c>
+      <c r="U98" s="4">
+        <v>0</v>
+      </c>
+      <c r="V98" s="4">
+        <v>0</v>
+      </c>
+      <c r="W98" s="4">
+        <v>0</v>
+      </c>
+      <c r="X98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>134</v>
+      <c r="A99" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="str" cm="1">
         <f t="array" ref="B99">_xlfn.TEXTJOIN(", ", TRUE, IF(C99:AB99=1, C$1:AB$1, ""))</f>
         <v>zero-copula</v>
       </c>
-      <c r="C99" s="4">
-        <v>0</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0</v>
-      </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" s="4">
-        <v>0</v>
-      </c>
-      <c r="K99" s="4">
-        <v>0</v>
-      </c>
-      <c r="L99" s="4">
-        <v>0</v>
-      </c>
-      <c r="M99" s="4">
-        <v>0</v>
-      </c>
-      <c r="N99" s="4">
-        <v>0</v>
-      </c>
-      <c r="O99" s="4">
-        <v>0</v>
-      </c>
-      <c r="P99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="4">
-        <v>0</v>
-      </c>
-      <c r="R99" s="4">
-        <v>0</v>
-      </c>
-      <c r="S99" s="4">
-        <v>0</v>
-      </c>
-      <c r="T99" s="4">
-        <v>0</v>
-      </c>
-      <c r="U99" s="4">
-        <v>0</v>
-      </c>
-      <c r="V99" s="4">
-        <v>0</v>
-      </c>
-      <c r="W99" s="4">
-        <v>0</v>
-      </c>
-      <c r="X99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>135</v>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>0</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0</v>
+      </c>
+      <c r="T99" s="5">
+        <v>0</v>
+      </c>
+      <c r="U99" s="5">
+        <v>0</v>
+      </c>
+      <c r="V99" s="5">
+        <v>0</v>
+      </c>
+      <c r="W99" s="5">
+        <v>0</v>
+      </c>
+      <c r="X99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="str" cm="1">
         <f t="array" ref="B100">_xlfn.TEXTJOIN(", ", TRUE, IF(C100:AB100=1, C$1:AB$1, ""))</f>
-        <v>zero-copula</v>
-      </c>
-      <c r="C100" s="5">
-        <v>0</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0</v>
-      </c>
-      <c r="I100" s="5">
-        <v>0</v>
-      </c>
-      <c r="J100" s="5">
-        <v>0</v>
-      </c>
-      <c r="K100" s="5">
-        <v>0</v>
-      </c>
-      <c r="L100" s="5">
-        <v>0</v>
-      </c>
-      <c r="M100" s="5">
-        <v>0</v>
-      </c>
-      <c r="N100" s="5">
-        <v>0</v>
-      </c>
-      <c r="O100" s="5">
-        <v>0</v>
-      </c>
-      <c r="P100" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="5">
-        <v>0</v>
-      </c>
-      <c r="R100" s="5">
-        <v>0</v>
-      </c>
-      <c r="S100" s="5">
-        <v>0</v>
-      </c>
-      <c r="T100" s="5">
-        <v>0</v>
-      </c>
-      <c r="U100" s="5">
-        <v>0</v>
-      </c>
-      <c r="V100" s="5">
-        <v>0</v>
-      </c>
-      <c r="W100" s="5">
-        <v>0</v>
-      </c>
-      <c r="X100" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="5">
+        <v/>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
+      </c>
+      <c r="O100" s="4">
+        <v>0</v>
+      </c>
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>0</v>
+      </c>
+      <c r="R100" s="4">
+        <v>0</v>
+      </c>
+      <c r="S100" s="4">
+        <v>0</v>
+      </c>
+      <c r="T100" s="4">
+        <v>0</v>
+      </c>
+      <c r="U100" s="4">
+        <v>0</v>
+      </c>
+      <c r="V100" s="4">
+        <v>0</v>
+      </c>
+      <c r="W100" s="4">
+        <v>0</v>
+      </c>
+      <c r="X100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>136</v>
+      <c r="A101" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="str" cm="1">
         <f t="array" ref="B101">_xlfn.TEXTJOIN(", ", TRUE, IF(C101:AB101=1, C$1:AB$1, ""))</f>
-        <v/>
-      </c>
-      <c r="C101" s="4">
-        <v>0</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0</v>
-      </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4">
-        <v>0</v>
-      </c>
-      <c r="K101" s="4">
-        <v>0</v>
-      </c>
-      <c r="L101" s="4">
-        <v>0</v>
-      </c>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
-      <c r="N101" s="4">
-        <v>0</v>
-      </c>
-      <c r="O101" s="4">
-        <v>0</v>
-      </c>
-      <c r="P101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="4">
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <v>0</v>
-      </c>
-      <c r="S101" s="4">
-        <v>0</v>
-      </c>
-      <c r="T101" s="4">
-        <v>0</v>
-      </c>
-      <c r="U101" s="4">
-        <v>0</v>
-      </c>
-      <c r="V101" s="4">
-        <v>0</v>
-      </c>
-      <c r="W101" s="4">
-        <v>0</v>
-      </c>
-      <c r="X101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="4">
+        <v>be-construction</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5">
+        <v>0</v>
+      </c>
+      <c r="H101" s="5">
+        <v>0</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0</v>
+      </c>
+      <c r="M101" s="5">
+        <v>0</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>0</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0</v>
+      </c>
+      <c r="T101" s="5">
+        <v>0</v>
+      </c>
+      <c r="U101" s="5">
+        <v>0</v>
+      </c>
+      <c r="V101" s="5">
+        <v>0</v>
+      </c>
+      <c r="W101" s="5">
+        <v>0</v>
+      </c>
+      <c r="X101" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>114</v>
+      <c r="A102" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="str" cm="1">
         <f t="array" ref="B102">_xlfn.TEXTJOIN(", ", TRUE, IF(C102:AB102=1, C$1:AB$1, ""))</f>
-        <v>be-construction</v>
-      </c>
-      <c r="C102" s="5">
-        <v>0</v>
-      </c>
-      <c r="D102" s="5">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
-        <v>1</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-      <c r="H102" s="5">
-        <v>0</v>
-      </c>
-      <c r="I102" s="5">
-        <v>0</v>
-      </c>
-      <c r="J102" s="5">
-        <v>0</v>
-      </c>
-      <c r="K102" s="5">
-        <v>0</v>
-      </c>
-      <c r="L102" s="5">
-        <v>0</v>
-      </c>
-      <c r="M102" s="5">
-        <v>0</v>
-      </c>
-      <c r="N102" s="5">
-        <v>0</v>
-      </c>
-      <c r="O102" s="5">
-        <v>0</v>
-      </c>
-      <c r="P102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="5">
-        <v>0</v>
-      </c>
-      <c r="R102" s="5">
-        <v>0</v>
-      </c>
-      <c r="S102" s="5">
-        <v>0</v>
-      </c>
-      <c r="T102" s="5">
-        <v>0</v>
-      </c>
-      <c r="U102" s="5">
-        <v>0</v>
-      </c>
-      <c r="V102" s="5">
-        <v>0</v>
-      </c>
-      <c r="W102" s="5">
-        <v>0</v>
-      </c>
-      <c r="X102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>154</v>
+        <v>aint</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>1</v>
+      </c>
+      <c r="O102" s="4">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>0</v>
+      </c>
+      <c r="R102" s="4">
+        <v>0</v>
+      </c>
+      <c r="S102" s="4">
+        <v>0</v>
+      </c>
+      <c r="T102" s="4">
+        <v>0</v>
+      </c>
+      <c r="U102" s="4">
+        <v>0</v>
+      </c>
+      <c r="V102" s="4">
+        <v>0</v>
+      </c>
+      <c r="W102" s="4">
+        <v>0</v>
+      </c>
+      <c r="X102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="str" cm="1">
         <f t="array" ref="B103">_xlfn.TEXTJOIN(", ", TRUE, IF(C103:AB103=1, C$1:AB$1, ""))</f>
-        <v>aint</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0</v>
-      </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0</v>
-      </c>
-      <c r="H103" s="4">
-        <v>0</v>
-      </c>
-      <c r="I103" s="4">
-        <v>0</v>
-      </c>
-      <c r="J103" s="4">
-        <v>0</v>
-      </c>
-      <c r="K103" s="4">
-        <v>0</v>
-      </c>
-      <c r="L103" s="4">
-        <v>0</v>
-      </c>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
-      <c r="N103" s="4">
-        <v>1</v>
-      </c>
-      <c r="O103" s="4">
-        <v>0</v>
-      </c>
-      <c r="P103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="4">
-        <v>0</v>
-      </c>
-      <c r="R103" s="4">
-        <v>0</v>
-      </c>
-      <c r="S103" s="4">
-        <v>0</v>
-      </c>
-      <c r="T103" s="4">
-        <v>0</v>
-      </c>
-      <c r="U103" s="4">
-        <v>0</v>
-      </c>
-      <c r="V103" s="4">
-        <v>0</v>
-      </c>
-      <c r="W103" s="4">
-        <v>0</v>
-      </c>
-      <c r="X103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
-        <v>116</v>
+        <v>zero-poss</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <v>0</v>
+      </c>
+      <c r="H103" s="5">
+        <v>0</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
+        <v>0</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0</v>
+      </c>
+      <c r="P103" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>0</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0</v>
+      </c>
+      <c r="S103" s="5">
+        <v>0</v>
+      </c>
+      <c r="T103" s="5">
+        <v>0</v>
+      </c>
+      <c r="U103" s="5">
+        <v>0</v>
+      </c>
+      <c r="V103" s="5">
+        <v>0</v>
+      </c>
+      <c r="W103" s="5">
+        <v>0</v>
+      </c>
+      <c r="X103" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="str" cm="1">
         <f t="array" ref="B104">_xlfn.TEXTJOIN(", ", TRUE, IF(C104:AB104=1, C$1:AB$1, ""))</f>
-        <v>zero-poss</v>
-      </c>
-      <c r="C104" s="5">
-        <v>1</v>
-      </c>
-      <c r="D104" s="5">
-        <v>0</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-      <c r="H104" s="5">
-        <v>0</v>
-      </c>
-      <c r="I104" s="5">
-        <v>0</v>
-      </c>
-      <c r="J104" s="5">
-        <v>0</v>
-      </c>
-      <c r="K104" s="5">
-        <v>0</v>
-      </c>
-      <c r="L104" s="5">
-        <v>0</v>
-      </c>
-      <c r="M104" s="5">
-        <v>0</v>
-      </c>
-      <c r="N104" s="5">
-        <v>0</v>
-      </c>
-      <c r="O104" s="5">
-        <v>0</v>
-      </c>
-      <c r="P104" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="5">
-        <v>0</v>
-      </c>
-      <c r="R104" s="5">
-        <v>0</v>
-      </c>
-      <c r="S104" s="5">
-        <v>0</v>
-      </c>
-      <c r="T104" s="5">
-        <v>0</v>
-      </c>
-      <c r="U104" s="5">
-        <v>0</v>
-      </c>
-      <c r="V104" s="5">
-        <v>0</v>
-      </c>
-      <c r="W104" s="5">
-        <v>0</v>
-      </c>
-      <c r="X104" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>153</v>
+        <v>be-construction, resultant-done</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>0</v>
+      </c>
+      <c r="R104" s="4">
+        <v>0</v>
+      </c>
+      <c r="S104" s="4">
+        <v>0</v>
+      </c>
+      <c r="T104" s="4">
+        <v>0</v>
+      </c>
+      <c r="U104" s="4">
+        <v>0</v>
+      </c>
+      <c r="V104" s="4">
+        <v>0</v>
+      </c>
+      <c r="W104" s="4">
+        <v>0</v>
+      </c>
+      <c r="X104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="str" cm="1">
         <f t="array" ref="B105">_xlfn.TEXTJOIN(", ", TRUE, IF(C105:AB105=1, C$1:AB$1, ""))</f>
         <v>be-construction, resultant-done</v>
       </c>
-      <c r="C105" s="4">
-        <v>0</v>
-      </c>
-      <c r="D105" s="4">
-        <v>0</v>
-      </c>
-      <c r="E105" s="4">
-        <v>0</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-      <c r="G105" s="4">
-        <v>1</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4">
-        <v>0</v>
-      </c>
-      <c r="K105" s="4">
-        <v>0</v>
-      </c>
-      <c r="L105" s="4">
-        <v>0</v>
-      </c>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="4">
-        <v>0</v>
-      </c>
-      <c r="O105" s="4">
-        <v>0</v>
-      </c>
-      <c r="P105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="4">
-        <v>0</v>
-      </c>
-      <c r="R105" s="4">
-        <v>0</v>
-      </c>
-      <c r="S105" s="4">
-        <v>0</v>
-      </c>
-      <c r="T105" s="4">
-        <v>0</v>
-      </c>
-      <c r="U105" s="4">
-        <v>0</v>
-      </c>
-      <c r="V105" s="4">
-        <v>0</v>
-      </c>
-      <c r="W105" s="4">
-        <v>0</v>
-      </c>
-      <c r="X105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="4">
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0</v>
+      </c>
+      <c r="I105" s="5">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="5">
+        <v>0</v>
+      </c>
+      <c r="L105" s="5">
+        <v>0</v>
+      </c>
+      <c r="M105" s="5">
+        <v>0</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>0</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0</v>
+      </c>
+      <c r="T105" s="5">
+        <v>0</v>
+      </c>
+      <c r="U105" s="5">
+        <v>0</v>
+      </c>
+      <c r="V105" s="5">
+        <v>0</v>
+      </c>
+      <c r="W105" s="5">
+        <v>0</v>
+      </c>
+      <c r="X105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
-        <v>117</v>
+      <c r="A106" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="str" cm="1">
         <f t="array" ref="B106">_xlfn.TEXTJOIN(", ", TRUE, IF(C106:AB106=1, C$1:AB$1, ""))</f>
-        <v>be-construction, resultant-done</v>
-      </c>
-      <c r="C106" s="5">
-        <v>0</v>
-      </c>
-      <c r="D106" s="5">
-        <v>0</v>
-      </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5">
-        <v>1</v>
-      </c>
-      <c r="G106" s="5">
-        <v>1</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5">
-        <v>0</v>
-      </c>
-      <c r="J106" s="5">
-        <v>0</v>
-      </c>
-      <c r="K106" s="5">
-        <v>0</v>
-      </c>
-      <c r="L106" s="5">
-        <v>0</v>
-      </c>
-      <c r="M106" s="5">
-        <v>0</v>
-      </c>
-      <c r="N106" s="5">
-        <v>0</v>
-      </c>
-      <c r="O106" s="5">
-        <v>0</v>
-      </c>
-      <c r="P106" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="5">
-        <v>0</v>
-      </c>
-      <c r="R106" s="5">
-        <v>0</v>
-      </c>
-      <c r="S106" s="5">
-        <v>0</v>
-      </c>
-      <c r="T106" s="5">
-        <v>0</v>
-      </c>
-      <c r="U106" s="5">
-        <v>0</v>
-      </c>
-      <c r="V106" s="5">
-        <v>0</v>
-      </c>
-      <c r="W106" s="5">
-        <v>0</v>
-      </c>
-      <c r="X106" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB106" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>118</v>
+        <v>multiple-neg</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106" s="4">
+        <v>0</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>0</v>
+      </c>
+      <c r="R106" s="4">
+        <v>0</v>
+      </c>
+      <c r="S106" s="4">
+        <v>0</v>
+      </c>
+      <c r="T106" s="4">
+        <v>0</v>
+      </c>
+      <c r="U106" s="4">
+        <v>0</v>
+      </c>
+      <c r="V106" s="4">
+        <v>0</v>
+      </c>
+      <c r="W106" s="4">
+        <v>0</v>
+      </c>
+      <c r="X106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="str" cm="1">
         <f t="array" ref="B107">_xlfn.TEXTJOIN(", ", TRUE, IF(C107:AB107=1, C$1:AB$1, ""))</f>
-        <v>multiple-neg</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
-        <v>0</v>
-      </c>
-      <c r="O107" s="4">
-        <v>0</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="4">
-        <v>0</v>
-      </c>
-      <c r="R107" s="4">
-        <v>0</v>
-      </c>
-      <c r="S107" s="4">
-        <v>0</v>
-      </c>
-      <c r="T107" s="4">
-        <v>0</v>
-      </c>
-      <c r="U107" s="4">
-        <v>0</v>
-      </c>
-      <c r="V107" s="4">
-        <v>0</v>
-      </c>
-      <c r="W107" s="4">
-        <v>0</v>
-      </c>
-      <c r="X107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>140</v>
+        <v>multiple-neg, aint</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
+        <v>1</v>
+      </c>
+      <c r="L107" s="5">
+        <v>0</v>
+      </c>
+      <c r="M107" s="5">
+        <v>0</v>
+      </c>
+      <c r="N107" s="5">
+        <v>1</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>0</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0</v>
+      </c>
+      <c r="T107" s="5">
+        <v>0</v>
+      </c>
+      <c r="U107" s="5">
+        <v>0</v>
+      </c>
+      <c r="V107" s="5">
+        <v>0</v>
+      </c>
+      <c r="W107" s="5">
+        <v>0</v>
+      </c>
+      <c r="X107" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="str" cm="1">
         <f t="array" ref="B108">_xlfn.TEXTJOIN(", ", TRUE, IF(C108:AB108=1, C$1:AB$1, ""))</f>
-        <v>multiple-neg, aint</v>
-      </c>
-      <c r="C108" s="5">
-        <v>0</v>
-      </c>
-      <c r="D108" s="5">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-      <c r="H108" s="5">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5">
-        <v>0</v>
-      </c>
-      <c r="J108" s="5">
-        <v>0</v>
-      </c>
-      <c r="K108" s="5">
-        <v>1</v>
-      </c>
-      <c r="L108" s="5">
-        <v>0</v>
-      </c>
-      <c r="M108" s="5">
-        <v>0</v>
-      </c>
-      <c r="N108" s="5">
-        <v>1</v>
-      </c>
-      <c r="O108" s="5">
-        <v>0</v>
-      </c>
-      <c r="P108" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="5">
-        <v>0</v>
-      </c>
-      <c r="R108" s="5">
-        <v>0</v>
-      </c>
-      <c r="S108" s="5">
-        <v>0</v>
-      </c>
-      <c r="T108" s="5">
-        <v>0</v>
-      </c>
-      <c r="U108" s="5">
-        <v>0</v>
-      </c>
-      <c r="V108" s="5">
-        <v>0</v>
-      </c>
-      <c r="W108" s="5">
-        <v>0</v>
-      </c>
-      <c r="X108" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="5">
+        <v>zero-copula, zero-3sg-pres-s, appositive-pleonastic-pronoun</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4">
+        <v>1</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>0</v>
+      </c>
+      <c r="R108" s="4">
+        <v>0</v>
+      </c>
+      <c r="S108" s="4">
+        <v>0</v>
+      </c>
+      <c r="T108" s="4">
+        <v>0</v>
+      </c>
+      <c r="U108" s="4">
+        <v>0</v>
+      </c>
+      <c r="V108" s="4">
+        <v>0</v>
+      </c>
+      <c r="W108" s="4">
+        <v>1</v>
+      </c>
+      <c r="X108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>138</v>
+      <c r="A109" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="str" cm="1">
         <f t="array" ref="B109">_xlfn.TEXTJOIN(", ", TRUE, IF(C109:AB109=1, C$1:AB$1, ""))</f>
         <v>zero-copula, zero-3sg-pres-s</v>
       </c>
-      <c r="C109" s="4">
-        <v>0</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
-        <v>0</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0</v>
-      </c>
-      <c r="L109" s="4">
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109" s="4">
-        <v>1</v>
-      </c>
-      <c r="P109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="4">
-        <v>0</v>
-      </c>
-      <c r="R109" s="4">
-        <v>0</v>
-      </c>
-      <c r="S109" s="4">
-        <v>0</v>
-      </c>
-      <c r="T109" s="4">
-        <v>0</v>
-      </c>
-      <c r="U109" s="4">
-        <v>0</v>
-      </c>
-      <c r="V109" s="4">
-        <v>0</v>
-      </c>
-      <c r="W109" s="4">
-        <v>0</v>
-      </c>
-      <c r="X109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB109" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>139</v>
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5">
+        <v>0</v>
+      </c>
+      <c r="H109" s="5">
+        <v>0</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0</v>
+      </c>
+      <c r="L109" s="5">
+        <v>0</v>
+      </c>
+      <c r="M109" s="5">
+        <v>0</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0</v>
+      </c>
+      <c r="O109" s="5">
+        <v>1</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>0</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0</v>
+      </c>
+      <c r="T109" s="5">
+        <v>0</v>
+      </c>
+      <c r="U109" s="5">
+        <v>0</v>
+      </c>
+      <c r="V109" s="5">
+        <v>0</v>
+      </c>
+      <c r="W109" s="5">
+        <v>0</v>
+      </c>
+      <c r="X109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="str" cm="1">
         <f t="array" ref="B110">_xlfn.TEXTJOIN(", ", TRUE, IF(C110:AB110=1, C$1:AB$1, ""))</f>
-        <v>zero-copula, zero-3sg-pres-s</v>
-      </c>
-      <c r="C110" s="5">
-        <v>0</v>
-      </c>
-      <c r="D110" s="5">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0</v>
-      </c>
-      <c r="I110" s="5">
-        <v>0</v>
-      </c>
-      <c r="J110" s="5">
-        <v>0</v>
-      </c>
-      <c r="K110" s="5">
-        <v>0</v>
-      </c>
-      <c r="L110" s="5">
-        <v>0</v>
-      </c>
-      <c r="M110" s="5">
-        <v>0</v>
-      </c>
-      <c r="N110" s="5">
-        <v>0</v>
-      </c>
-      <c r="O110" s="5">
-        <v>1</v>
-      </c>
-      <c r="P110" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>0</v>
-      </c>
-      <c r="R110" s="5">
-        <v>0</v>
-      </c>
-      <c r="S110" s="5">
-        <v>0</v>
-      </c>
-      <c r="T110" s="5">
-        <v>0</v>
-      </c>
-      <c r="U110" s="5">
-        <v>0</v>
-      </c>
-      <c r="V110" s="5">
-        <v>0</v>
-      </c>
-      <c r="W110" s="5">
-        <v>0</v>
-      </c>
-      <c r="X110" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="5">
+        <v>double-modal</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+      <c r="L110" s="4">
+        <v>0</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>0</v>
+      </c>
+      <c r="R110" s="4">
+        <v>0</v>
+      </c>
+      <c r="S110" s="4">
+        <v>0</v>
+      </c>
+      <c r="T110" s="4">
+        <v>0</v>
+      </c>
+      <c r="U110" s="4">
+        <v>0</v>
+      </c>
+      <c r="V110" s="4">
+        <v>0</v>
+      </c>
+      <c r="W110" s="4">
+        <v>0</v>
+      </c>
+      <c r="X110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>119</v>
+      <c r="A111" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="str" cm="1">
         <f t="array" ref="B111">_xlfn.TEXTJOIN(", ", TRUE, IF(C111:AB111=1, C$1:AB$1, ""))</f>
         <v>double-modal</v>
       </c>
-      <c r="C111" s="4">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
-        <v>0</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
-        <v>1</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0</v>
-      </c>
-      <c r="L111" s="4">
-        <v>0</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111" s="4">
-        <v>0</v>
-      </c>
-      <c r="P111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="4">
-        <v>0</v>
-      </c>
-      <c r="R111" s="4">
-        <v>0</v>
-      </c>
-      <c r="S111" s="4">
-        <v>0</v>
-      </c>
-      <c r="T111" s="4">
-        <v>0</v>
-      </c>
-      <c r="U111" s="4">
-        <v>0</v>
-      </c>
-      <c r="V111" s="4">
-        <v>0</v>
-      </c>
-      <c r="W111" s="4">
-        <v>0</v>
-      </c>
-      <c r="X111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="4">
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>0</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5">
+        <v>0</v>
+      </c>
+      <c r="H111" s="5">
+        <v>0</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0</v>
+      </c>
+      <c r="L111" s="5">
+        <v>0</v>
+      </c>
+      <c r="M111" s="5">
+        <v>0</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>0</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0</v>
+      </c>
+      <c r="S111" s="5">
+        <v>0</v>
+      </c>
+      <c r="T111" s="5">
+        <v>0</v>
+      </c>
+      <c r="U111" s="5">
+        <v>0</v>
+      </c>
+      <c r="V111" s="5">
+        <v>0</v>
+      </c>
+      <c r="W111" s="5">
+        <v>0</v>
+      </c>
+      <c r="X111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
-        <v>120</v>
+      <c r="A112" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="str" cm="1">
         <f t="array" ref="B112">_xlfn.TEXTJOIN(", ", TRUE, IF(C112:AB112=1, C$1:AB$1, ""))</f>
         <v>double-modal</v>
       </c>
-      <c r="C112" s="5">
-        <v>0</v>
-      </c>
-      <c r="D112" s="5">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0</v>
-      </c>
-      <c r="I112" s="5">
-        <v>0</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="5">
-        <v>0</v>
-      </c>
-      <c r="L112" s="5">
-        <v>0</v>
-      </c>
-      <c r="M112" s="5">
-        <v>0</v>
-      </c>
-      <c r="N112" s="5">
-        <v>0</v>
-      </c>
-      <c r="O112" s="5">
-        <v>0</v>
-      </c>
-      <c r="P112" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="5">
-        <v>0</v>
-      </c>
-      <c r="R112" s="5">
-        <v>0</v>
-      </c>
-      <c r="S112" s="5">
-        <v>0</v>
-      </c>
-      <c r="T112" s="5">
-        <v>0</v>
-      </c>
-      <c r="U112" s="5">
-        <v>0</v>
-      </c>
-      <c r="V112" s="5">
-        <v>0</v>
-      </c>
-      <c r="W112" s="5">
-        <v>0</v>
-      </c>
-      <c r="X112" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB112" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>142</v>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+      <c r="R112" s="4">
+        <v>0</v>
+      </c>
+      <c r="S112" s="4">
+        <v>0</v>
+      </c>
+      <c r="T112" s="4">
+        <v>0</v>
+      </c>
+      <c r="U112" s="4">
+        <v>0</v>
+      </c>
+      <c r="V112" s="4">
+        <v>0</v>
+      </c>
+      <c r="W112" s="4">
+        <v>0</v>
+      </c>
+      <c r="X112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="str" cm="1">
         <f t="array" ref="B113">_xlfn.TEXTJOIN(", ", TRUE, IF(C113:AB113=1, C$1:AB$1, ""))</f>
-        <v>double-modal</v>
-      </c>
-      <c r="C113" s="4">
-        <v>0</v>
-      </c>
-      <c r="D113" s="4">
-        <v>0</v>
-      </c>
-      <c r="E113" s="4">
-        <v>0</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
-      </c>
-      <c r="H113" s="4">
-        <v>0</v>
-      </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4">
-        <v>1</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4">
-        <v>0</v>
-      </c>
-      <c r="O113" s="4">
-        <v>0</v>
-      </c>
-      <c r="P113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="4">
-        <v>0</v>
-      </c>
-      <c r="R113" s="4">
-        <v>0</v>
-      </c>
-      <c r="S113" s="4">
-        <v>0</v>
-      </c>
-      <c r="T113" s="4">
-        <v>0</v>
-      </c>
-      <c r="U113" s="4">
-        <v>0</v>
-      </c>
-      <c r="V113" s="4">
-        <v>0</v>
-      </c>
-      <c r="W113" s="4">
-        <v>0</v>
-      </c>
-      <c r="X113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z113" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>121</v>
+        <v>past-tense-swap</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5">
+        <v>0</v>
+      </c>
+      <c r="L113" s="5">
+        <v>0</v>
+      </c>
+      <c r="M113" s="5">
+        <v>0</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0</v>
+      </c>
+      <c r="P113" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>0</v>
+      </c>
+      <c r="R113" s="5">
+        <v>0</v>
+      </c>
+      <c r="S113" s="5">
+        <v>0</v>
+      </c>
+      <c r="T113" s="5">
+        <v>0</v>
+      </c>
+      <c r="U113" s="5">
+        <v>0</v>
+      </c>
+      <c r="V113" s="5">
+        <v>0</v>
+      </c>
+      <c r="W113" s="5">
+        <v>0</v>
+      </c>
+      <c r="X113" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="str" cm="1">
         <f t="array" ref="B114">_xlfn.TEXTJOIN(", ", TRUE, IF(C114:AB114=1, C$1:AB$1, ""))</f>
-        <v>past-tense-swap</v>
-      </c>
-      <c r="C114" s="5">
-        <v>0</v>
-      </c>
-      <c r="D114" s="5">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5">
-        <v>0</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5">
-        <v>0</v>
-      </c>
-      <c r="K114" s="5">
-        <v>0</v>
-      </c>
-      <c r="L114" s="5">
-        <v>0</v>
-      </c>
-      <c r="M114" s="5">
-        <v>0</v>
-      </c>
-      <c r="N114" s="5">
-        <v>0</v>
-      </c>
-      <c r="O114" s="5">
-        <v>0</v>
-      </c>
-      <c r="P114" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>0</v>
-      </c>
-      <c r="R114" s="5">
-        <v>0</v>
-      </c>
-      <c r="S114" s="5">
-        <v>0</v>
-      </c>
-      <c r="T114" s="5">
-        <v>0</v>
-      </c>
-      <c r="U114" s="5">
-        <v>0</v>
-      </c>
-      <c r="V114" s="5">
-        <v>0</v>
-      </c>
-      <c r="W114" s="5">
-        <v>0</v>
-      </c>
-      <c r="X114" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA114" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB114" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" ht="51" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>122</v>
+        <v>be-construction, demonstrative-them, past-tense-swap</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>0</v>
+      </c>
+      <c r="R114" s="4">
+        <v>0</v>
+      </c>
+      <c r="S114" s="4">
+        <v>0</v>
+      </c>
+      <c r="T114" s="4">
+        <v>0</v>
+      </c>
+      <c r="U114" s="4">
+        <v>0</v>
+      </c>
+      <c r="V114" s="4">
+        <v>1</v>
+      </c>
+      <c r="W114" s="4">
+        <v>0</v>
+      </c>
+      <c r="X114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="str" cm="1">
         <f t="array" ref="B115">_xlfn.TEXTJOIN(", ", TRUE, IF(C115:AB115=1, C$1:AB$1, ""))</f>
-        <v>be-construction, past-tense-swap</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0</v>
-      </c>
-      <c r="D115" s="4">
-        <v>0</v>
-      </c>
-      <c r="E115" s="4">
-        <v>0</v>
-      </c>
-      <c r="F115" s="4">
-        <v>1</v>
-      </c>
-      <c r="G115" s="4">
-        <v>0</v>
-      </c>
-      <c r="H115" s="4">
-        <v>0</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="J115" s="4">
-        <v>0</v>
-      </c>
-      <c r="K115" s="4">
-        <v>0</v>
-      </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
-      <c r="N115" s="4">
-        <v>0</v>
-      </c>
-      <c r="O115" s="4">
-        <v>0</v>
-      </c>
-      <c r="P115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="4">
-        <v>0</v>
-      </c>
-      <c r="R115" s="4">
-        <v>0</v>
-      </c>
-      <c r="S115" s="4">
-        <v>0</v>
-      </c>
-      <c r="T115" s="4">
-        <v>0</v>
-      </c>
-      <c r="U115" s="4">
-        <v>0</v>
-      </c>
-      <c r="V115" s="4">
-        <v>0</v>
-      </c>
-      <c r="W115" s="4">
-        <v>0</v>
-      </c>
-      <c r="X115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA115" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
-        <v>123</v>
+        <v>be-construction</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115" s="5">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5">
+        <v>0</v>
+      </c>
+      <c r="H115" s="5">
+        <v>0</v>
+      </c>
+      <c r="I115" s="5">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="K115" s="5">
+        <v>0</v>
+      </c>
+      <c r="L115" s="5">
+        <v>0</v>
+      </c>
+      <c r="M115" s="5">
+        <v>0</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0</v>
+      </c>
+      <c r="P115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>0</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0</v>
+      </c>
+      <c r="S115" s="5">
+        <v>0</v>
+      </c>
+      <c r="T115" s="5">
+        <v>0</v>
+      </c>
+      <c r="U115" s="5">
+        <v>0</v>
+      </c>
+      <c r="V115" s="5">
+        <v>0</v>
+      </c>
+      <c r="W115" s="5">
+        <v>0</v>
+      </c>
+      <c r="X115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B116" s="2" t="str" cm="1">
         <f t="array" ref="B116">_xlfn.TEXTJOIN(", ", TRUE, IF(C116:AB116=1, C$1:AB$1, ""))</f>
-        <v>be-construction</v>
-      </c>
-      <c r="C116" s="5">
-        <v>0</v>
-      </c>
-      <c r="D116" s="5">
-        <v>0</v>
-      </c>
-      <c r="E116" s="5">
-        <v>0</v>
-      </c>
-      <c r="F116" s="5">
-        <v>1</v>
-      </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-      <c r="H116" s="5">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5">
-        <v>0</v>
-      </c>
-      <c r="J116" s="5">
-        <v>0</v>
-      </c>
-      <c r="K116" s="5">
-        <v>0</v>
-      </c>
-      <c r="L116" s="5">
-        <v>0</v>
-      </c>
-      <c r="M116" s="5">
-        <v>0</v>
-      </c>
-      <c r="N116" s="5">
-        <v>0</v>
-      </c>
-      <c r="O116" s="5">
-        <v>0</v>
-      </c>
-      <c r="P116" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="5">
-        <v>0</v>
-      </c>
-      <c r="R116" s="5">
-        <v>0</v>
-      </c>
-      <c r="S116" s="5">
-        <v>0</v>
-      </c>
-      <c r="T116" s="5">
-        <v>0</v>
-      </c>
-      <c r="U116" s="5">
-        <v>0</v>
-      </c>
-      <c r="V116" s="5">
-        <v>0</v>
-      </c>
-      <c r="W116" s="5">
-        <v>0</v>
-      </c>
-      <c r="X116" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z116" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA116" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB116" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B117" s="2" t="str" cm="1">
-        <f t="array" ref="B117">_xlfn.TEXTJOIN(", ", TRUE, IF(C117:AB117=1, C$1:AB$1, ""))</f>
         <v>verb-stem, zero-rel-pronoun</v>
       </c>
-      <c r="C117" s="4">
-        <v>0</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0</v>
-      </c>
-      <c r="E117" s="4">
-        <v>0</v>
-      </c>
-      <c r="F117" s="4">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0</v>
-      </c>
-      <c r="H117" s="4">
-        <v>0</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4">
-        <v>0</v>
-      </c>
-      <c r="K117" s="4">
-        <v>0</v>
-      </c>
-      <c r="L117" s="4">
-        <v>0</v>
-      </c>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
-      <c r="N117" s="4">
-        <v>0</v>
-      </c>
-      <c r="O117" s="4">
-        <v>0</v>
-      </c>
-      <c r="P117" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="4">
-        <v>0</v>
-      </c>
-      <c r="R117" s="4">
-        <v>0</v>
-      </c>
-      <c r="S117" s="4">
-        <v>0</v>
-      </c>
-      <c r="T117" s="4">
-        <v>0</v>
-      </c>
-      <c r="U117" s="4">
-        <v>0</v>
-      </c>
-      <c r="V117" s="4">
-        <v>0</v>
-      </c>
-      <c r="W117" s="4">
-        <v>0</v>
-      </c>
-      <c r="X117" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y117" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z117" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB117" s="4">
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>0</v>
+      </c>
+      <c r="R116" s="4">
+        <v>0</v>
+      </c>
+      <c r="S116" s="4">
+        <v>0</v>
+      </c>
+      <c r="T116" s="4">
+        <v>0</v>
+      </c>
+      <c r="U116" s="4">
+        <v>0</v>
+      </c>
+      <c r="V116" s="4">
+        <v>0</v>
+      </c>
+      <c r="W116" s="4">
+        <v>0</v>
+      </c>
+      <c r="X116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF6F1A-3009-6749-96F9-8E14C25236B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55EF83-4084-F445-AFB5-663F1D7A509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15880" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
@@ -983,10 +983,10 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V45" sqref="V45"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4985AA33-8E92-074F-A178-DFD94C7931C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA5E4E-94E2-AD4D-AF40-D88DDB3F5926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="167">
   <si>
     <t>sentence</t>
   </si>
@@ -572,6 +572,10 @@
   <si>
     <t>Boy, I make any kind of move, this boy be done shot me.</t>
   </si>
+  <si>
+    <t>Once you put your hand on the plow, you can’t be looking back, cause you be done
+dug up something else</t>
+  </si>
 </sst>
 </file>
 
@@ -1011,10 +1015,10 @@
   <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12537,18 +12541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57DBA84-7D8F-8C4E-BF4D-58C17251B162}">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A61" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="28" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -12631,8 +12635,8 @@
       </c>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B2">
@@ -12714,8 +12718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B3">
@@ -12797,8 +12801,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
@@ -12880,8 +12884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5">
@@ -12963,8 +12967,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B6">
@@ -13046,8 +13050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7">
@@ -13129,8 +13133,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8">
@@ -13212,8 +13216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B9">
@@ -13295,8 +13299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B10">
@@ -13378,8 +13382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B11">
@@ -13461,8 +13465,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12">
@@ -13544,8 +13548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B13">
@@ -13627,8 +13631,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14">
@@ -13710,8 +13714,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B15">
@@ -13793,8 +13797,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B16">
@@ -13876,8 +13880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -13959,8 +13963,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B18">
@@ -14042,8 +14046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -14125,8 +14129,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B20">
@@ -14208,8 +14212,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B21">
@@ -14291,9 +14295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
+    <row r="22" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -14374,9 +14378,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>49</v>
+    <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14457,8 +14461,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24">
@@ -14540,8 +14544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B25">
@@ -14623,8 +14627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B26">
@@ -14706,8 +14710,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B27">
@@ -14789,8 +14793,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B28">
@@ -14872,8 +14876,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B29">
@@ -14955,8 +14959,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B30">
@@ -15038,8 +15042,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B31">
@@ -15121,8 +15125,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B32">
@@ -15204,8 +15208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B33">
@@ -15287,8 +15291,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B34">
@@ -15370,8 +15374,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B35">
@@ -15453,8 +15457,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B36">
@@ -15536,8 +15540,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B37">
@@ -15619,8 +15623,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B38">
@@ -15702,8 +15706,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B39">
@@ -15785,8 +15789,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B40">
@@ -15868,8 +15872,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B41">
@@ -15951,8 +15955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B42">
@@ -16034,8 +16038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B43">
@@ -16117,8 +16121,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B44">
@@ -16200,8 +16204,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B45">
@@ -16283,8 +16287,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B46">
@@ -16366,8 +16370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B47">
@@ -16449,8 +16453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B48">
@@ -16532,8 +16536,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B49">
@@ -16615,8 +16619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B50">
@@ -16698,8 +16702,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B51">
@@ -16781,8 +16785,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B52">
@@ -16864,8 +16868,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B53">
@@ -16947,8 +16951,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B54">
@@ -17030,8 +17034,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B55">
@@ -17113,8 +17117,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B56">
@@ -17196,8 +17200,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B57">
@@ -17279,8 +17283,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B58">
@@ -17362,8 +17366,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B59">
@@ -17445,8 +17449,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B60">
@@ -17528,8 +17532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B61">
@@ -17611,8 +17615,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B62">
@@ -17694,8 +17698,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B63">
@@ -17777,8 +17781,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B64">
@@ -17860,8 +17864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B65">
@@ -17943,8 +17947,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B66">
@@ -18026,8 +18030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -18109,8 +18113,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B68">
@@ -18192,8 +18196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B69">
@@ -18275,8 +18279,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B70">
@@ -18358,8 +18362,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B71">
@@ -18441,8 +18445,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B72">
@@ -18524,8 +18528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B73">
@@ -18607,8 +18611,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B74">
@@ -18690,8 +18694,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B75">
@@ -18773,8 +18777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B76">
@@ -18856,8 +18860,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B77">
@@ -18939,8 +18943,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B78">
@@ -19022,8 +19026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B79">
@@ -19105,8 +19109,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B80">
@@ -19188,8 +19192,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B81">
@@ -19271,8 +19275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B82">
@@ -19354,8 +19358,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B83">
@@ -19437,8 +19441,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B84">
@@ -19520,8 +19524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B85">
@@ -19603,8 +19607,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B86">
@@ -19686,8 +19690,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B87">
@@ -19769,8 +19773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B88">
@@ -19852,8 +19856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B89">
@@ -19935,8 +19939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B90">
@@ -20018,8 +20022,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B91">
@@ -20101,8 +20105,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B92">
@@ -20184,8 +20188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B93">
@@ -20267,8 +20271,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B94">
@@ -20350,8 +20354,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B95">
@@ -20433,8 +20437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B96">
@@ -20516,8 +20520,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B97">
@@ -20599,8 +20603,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B98">
@@ -20682,8 +20686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B99">
@@ -20765,8 +20769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B100">
@@ -20848,8 +20852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B101">
@@ -20931,8 +20935,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B102">
@@ -21014,8 +21018,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B103">
@@ -21097,8 +21101,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B104">
@@ -21180,8 +21184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B105">
@@ -21263,8 +21267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B106">
@@ -21346,8 +21350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B107">
@@ -21429,8 +21433,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B108">
@@ -21512,8 +21516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B109">
@@ -21595,8 +21599,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B110">
@@ -21678,8 +21682,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B111">
@@ -21761,8 +21765,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B112">
@@ -21844,8 +21848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B113">
@@ -21927,8 +21931,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B114">
@@ -22010,8 +22014,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B115">
@@ -22093,8 +22097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B116">
@@ -26771,8 +26775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D46738-CC25-DA4A-83F1-2B4138C710EE}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection sqref="A1:S1048576"/>
+    <sheetView topLeftCell="A49" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28047,9 +28051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
+    <row r="22" spans="1:19" ht="238" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -28108,7 +28112,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="B23">
         <v>0</v>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA5E4E-94E2-AD4D-AF40-D88DDB3F5926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCD0E3-CB1F-4049-A577-4049CE88D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M70" sqref="M70"/>
+      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCD0E3-CB1F-4049-A577-4049CE88D7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E62B63C-EDA8-A04B-9EA5-6A20483CE2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
+    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" activeTab="1" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="13" r:id="rId1"/>
-    <sheet name="BERT-Exp1" sheetId="14" r:id="rId2"/>
+    <sheet name="BERT" sheetId="14" r:id="rId2"/>
     <sheet name="Exp1" sheetId="2" r:id="rId3"/>
     <sheet name="Exp1-ZERO" sheetId="12" r:id="rId4"/>
     <sheet name="Exp1-ICL" sheetId="4" r:id="rId5"/>
@@ -1014,11 +1014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C55F1E-61B8-CC4E-A62C-30E23DBF9163}">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
+      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22189,8 +22189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DAD28-D3B0-E941-8B1E-EFB96A36213E}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Decoder-Only/GPT/data/Test1.xlsx
+++ b/Decoder-Only/GPT/data/Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marietano/Downloads/Dissertation stuff/Dissertation (git)/Decoder-Only/GPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5030634-6DEF-1B4B-A646-D6C611F3BFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59568372-680C-014C-A405-7DB848E7BF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" activeTab="1" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
+    <workbookView xWindow="4320" yWindow="620" windowWidth="24480" windowHeight="15860" activeTab="11" xr2:uid="{E98D4AC7-EE56-3049-B2B3-6A027E81FFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="13" r:id="rId1"/>
@@ -12706,8 +12706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57DBA84-7D8F-8C4E-BF4D-58C17251B162}">
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22354,8 +22354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453DAD28-D3B0-E941-8B1E-EFB96A36213E}">
   <dimension ref="A1:XFC118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
